--- a/Projekt Management/Zeiterfassung.xlsx
+++ b/Projekt Management/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Projekt Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88EA8ADB-900B-4347-9802-D74009D0463C}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B843F0B-6CFA-4CE4-9423-45C84FE94349}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="145">
   <si>
     <t>Datum</t>
   </si>
@@ -458,6 +458,27 @@
   <si>
     <t>Erstellung Logo</t>
   </si>
+  <si>
+    <t>Anfrage UmweltV API</t>
+  </si>
+  <si>
+    <t>OneNote Features eintragen</t>
+  </si>
+  <si>
+    <t>Design start</t>
+  </si>
+  <si>
+    <t>Fabian fragt Adobe Programme an</t>
+  </si>
+  <si>
+    <t>Ideensammlung</t>
+  </si>
+  <si>
+    <t>Designanfänge (Interface und Landing Page)</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -981,13 +1002,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1230,6 +1284,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,11 +1320,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1294,6 +1352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1744,7 +1806,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,19 +1829,19 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
       <c r="G1" s="1"/>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1806,7 +1868,7 @@
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="157" t="s">
+      <c r="L2" s="148" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1828,15 +1890,15 @@
       </c>
       <c r="K3" s="18" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 40 min</v>
-      </c>
-      <c r="L3" s="158" t="str">
+        <v>4 h 20 min</v>
+      </c>
+      <c r="L3" s="149" t="str">
         <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 40 min</v>
-      </c>
-      <c r="M3" s="159" t="str">
+        <v>3 h 50 min</v>
+      </c>
+      <c r="M3" s="150" t="str">
         <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 40 min</v>
+        <v>4 h 30 min</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
@@ -1861,13 +1923,17 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="153"/>
+      <c r="D5" s="153">
         <v>80</v>
       </c>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="152"/>
       <c r="K5" s="19" t="s">
         <v>10</v>
       </c>
@@ -1881,15 +1947,74 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45611</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1898,11 +2023,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
       <c r="I13" s="20">
         <v>45477</v>
       </c>
       <c r="J13" s="20">
         <v>47118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,11 +2294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:241" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="103"/>
       <c r="E1" s="103"/>
       <c r="F1" s="102">
@@ -15485,11 +15624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:241" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="103"/>
       <c r="E1" s="103"/>
       <c r="F1" s="102">
@@ -17983,44 +18122,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="155" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="153" t="s">
+      <c r="I2" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="153" t="s">
+      <c r="J2" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="162" t="s">
         <v>92</v>
       </c>
     </row>
@@ -18037,12 +18176,12 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="156"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="163"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">

--- a/Projekt Management/Zeiterfassung.xlsx
+++ b/Projekt Management/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Projekt Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B843F0B-6CFA-4CE4-9423-45C84FE94349}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14DCC68-EA2E-40FC-9831-7097DC9CAE41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -1890,15 +1890,15 @@
       </c>
       <c r="K3" s="18" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>4 h 20 min</v>
+        <v>5 h 0 min</v>
       </c>
       <c r="L3" s="149" t="str">
         <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>3 h 50 min</v>
+        <v>4 h 30 min</v>
       </c>
       <c r="M3" s="150" t="str">
         <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
-        <v>4 h 30 min</v>
+        <v>4 h 40 min</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
@@ -2013,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
@@ -2026,8 +2026,11 @@
       <c r="B13" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
       <c r="D13">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I13" s="20">
         <v>45477</v>
@@ -2041,7 +2044,7 @@
         <v>144</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
